--- a/bin/Debug/net6.0-windows/excel/language.xlsx
+++ b/bin/Debug/net6.0-windows/excel/language.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="12525"/>
+    <workbookView windowWidth="27945" windowHeight="14175" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="log" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
   <si>
     <t xml:space="preserve">翻译相关的配置
 </t>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>Prüfung</t>
-  </si>
-  <si>
-    <t>内容</t>
   </si>
   <si>
     <t>language_test</t>
@@ -724,12 +721,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1094,113 +1088,113 @@
   <sheetPr/>
   <dimension ref="C5:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="5" spans="3:10">
-      <c r="C5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="3:10">
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="3:10">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="3:10">
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="3:10">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="3:10">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="3:9">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="3:9">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="3:9">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1220,7 +1214,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E6"/>
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1344,8 +1338,8 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1394,13 +1388,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
@@ -1424,16 +1418,16 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5" s="2">
@@ -1442,7 +1436,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
